--- a/SeminarPaper/Model/input data/PotPumpStor.xlsx
+++ b/SeminarPaper/Model/input data/PotPumpStor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Documents\GitHub\EnergyEconomics\SeminarPaper\Model\input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE118A-EF24-4D18-B08E-4B859EFD3DA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3208A51-FA19-47FE-97AC-8CFBB132DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
   <si>
     <t>Country</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Pumped Storage Potential, Aggregated Country List</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +397,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -504,6 +522,68 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,8 +632,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,19 +1007,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -1069,7 +1174,85 @@
         <v>3250</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9">
+        <f>B4</f>
+        <v>14235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9">
+        <f>B5</f>
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9">
+        <f>B2+B6+B7</f>
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <f>B8+B9</f>
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <f>B10</f>
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeminarPaper/Model/input data/PotPumpStor.xlsx
+++ b/SeminarPaper/Model/input data/PotPumpStor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Documents\GitHub\EnergyEconomics\SeminarPaper\Model\input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3208A51-FA19-47FE-97AC-8CFBB132DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE118A-EF24-4D18-B08E-4B859EFD3DA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>IB</t>
-  </si>
-  <si>
-    <t>Pumped Storage Potential, Aggregated Country List</t>
   </si>
 </sst>
 </file>
@@ -217,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,20 +391,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -525,68 +507,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,26 +552,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,26 +909,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -1174,85 +1069,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="9">
-        <f>B4</f>
-        <v>14235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="9">
-        <f>B5</f>
-        <v>6931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="9">
-        <f>B2+B6+B7</f>
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9">
-        <f>B8+B9</f>
-        <v>44567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10">
-        <f>B10</f>
-        <v>5994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:B14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>